--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E259A5CB-1E8C-4059-A8A0-58930792B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0D713-C0F8-4064-BBEE-DF4908334CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -225,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,7 +222,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,10 +403,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$H$21</c:f>
+              <c:f>Sheet1!$H$14:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -443,15 +431,18 @@
                 <c:pt idx="7">
                   <c:v>605</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>624</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$21</c:f>
+              <c:f>Sheet1!$I$14:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>13.656549199999567</c:v>
                 </c:pt>
@@ -475,6 +466,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>374.59286800000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>377.17739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1548,7 +1542,7 @@
     <col min="13" max="13" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1569,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1595,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>13.72752</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>19.607921000000001</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H10" si="0">AVERAGE(E4:G4)</f>
+        <f t="shared" ref="H4:H9" si="0">AVERAGE(E4:G4)</f>
         <v>20.26016266666667</v>
       </c>
       <c r="I4">
@@ -1667,7 +1661,7 @@
         <v>20.656386999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>21.927040000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1739,7 +1733,7 @@
         <v>57.942410000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>158.55489900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1811,7 +1805,7 @@
         <v>231.91065699999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1843,16 +1837,11 @@
       <c r="J9">
         <v>184</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +1874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1899,7 +1888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H13" t="s">
         <v>9</v>
       </c>
@@ -1907,7 +1896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>2</v>
       </c>
@@ -1915,7 +1904,7 @@
         <v>13.656549199999567</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>4</v>
       </c>
@@ -1923,7 +1912,7 @@
         <v>20.26016266666667</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>10</v>
       </c>
@@ -1969,6 +1958,14 @@
       </c>
       <c r="I21">
         <v>374.59286800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>624</v>
+      </c>
+      <c r="I22">
+        <v>377.17739</v>
       </c>
     </row>
   </sheetData>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC0D713-C0F8-4064-BBEE-DF4908334CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CA512-E5DC-4746-AD30-8A2CFAD17BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CA512-E5DC-4746-AD30-8A2CFAD17BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0863BC-9E62-4D76-8CDB-FD5CA02107BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>Scene name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,53 @@
   </si>
   <si>
     <t>9_ur10_new_TDgen.ts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypal(joint:5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mecharm(joint:6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ur3(joint:6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_common_scene.ttt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102_common_scene.ttt</t>
+  </si>
+  <si>
+    <t>103_common_scene.ttt</t>
+  </si>
+  <si>
+    <t>104_common_scene.ttt</t>
+  </si>
+  <si>
+    <t>common_robot_TDgen.ts</t>
+  </si>
+  <si>
+    <t>The amount of objects in scene</t>
+  </si>
+  <si>
+    <t>cr3(joint:6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the complexity of robots</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,16 +1271,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>691243</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2215242</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97971</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1524,21 +1571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.35546875" customWidth="1"/>
-    <col min="4" max="4" width="16.78515625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20.640625" customWidth="1"/>
+    <col min="4" max="4" width="23.2109375" customWidth="1"/>
     <col min="5" max="5" width="11.640625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="41.0703125" customWidth="1"/>
-    <col min="10" max="10" width="39.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.35546875" customWidth="1"/>
     <col min="13" max="13" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1968,11 +2016,461 @@
         <v>377.17739</v>
       </c>
     </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42">
+        <v>14.863182</v>
+      </c>
+      <c r="F42">
+        <v>15.103191199999999</v>
+      </c>
+      <c r="G42">
+        <v>16.216851590000001</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(E42:G42)</f>
+        <v>15.394408263333332</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>61.480637600000001</v>
+      </c>
+      <c r="F43">
+        <v>61.790875999999997</v>
+      </c>
+      <c r="G43">
+        <v>60.294494200000003</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H60" si="1">AVERAGE(E43:G43)</f>
+        <v>61.188669266666665</v>
+      </c>
+      <c r="I43">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>90.207876299999995</v>
+      </c>
+      <c r="F44">
+        <v>92.767309999999995</v>
+      </c>
+      <c r="G44">
+        <v>89.763446500003298</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>90.912877600001096</v>
+      </c>
+      <c r="I44">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>275.62256000000002</v>
+      </c>
+      <c r="F45">
+        <v>290.51753300000001</v>
+      </c>
+      <c r="G45">
+        <v>305.24579440000002</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>290.46196246666665</v>
+      </c>
+      <c r="I45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>16.4620538</v>
+      </c>
+      <c r="F47">
+        <v>15.4013258</v>
+      </c>
+      <c r="G47">
+        <v>15.3842</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>15.749193200000001</v>
+      </c>
+      <c r="I47">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>80.989699999999999</v>
+      </c>
+      <c r="F48">
+        <v>84.686049999999994</v>
+      </c>
+      <c r="G48">
+        <v>84.549351700000003</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>83.408367233333323</v>
+      </c>
+      <c r="I48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>123.33629999999999</v>
+      </c>
+      <c r="F49">
+        <v>123.278881</v>
+      </c>
+      <c r="G49">
+        <v>124.068011</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>123.561064</v>
+      </c>
+      <c r="I49">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50">
+        <v>288.669647199</v>
+      </c>
+      <c r="F50">
+        <v>284.72779179999998</v>
+      </c>
+      <c r="G50">
+        <v>286.66720099999998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>286.68821333299996</v>
+      </c>
+      <c r="I50">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>14.556710000000001</v>
+      </c>
+      <c r="F52">
+        <v>14.541501500000001</v>
+      </c>
+      <c r="G52">
+        <v>15.4060246</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>14.834745366666667</v>
+      </c>
+      <c r="I52">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>61.835599999999999</v>
+      </c>
+      <c r="F53">
+        <v>54.939295899999998</v>
+      </c>
+      <c r="G53">
+        <v>55.805736400000001</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>57.526877433333333</v>
+      </c>
+      <c r="I53">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54">
+        <v>73.991912999999997</v>
+      </c>
+      <c r="F54">
+        <v>72.674952000000005</v>
+      </c>
+      <c r="G54">
+        <v>72.6011606</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>73.089341866666658</v>
+      </c>
+      <c r="I54">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55">
+        <v>183.19110000000001</v>
+      </c>
+      <c r="F55">
+        <v>181.83458519000001</v>
+      </c>
+      <c r="G55">
+        <v>182.45144999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>182.49237839666668</v>
+      </c>
+      <c r="I55">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>13.582720200000001</v>
+      </c>
+      <c r="F57">
+        <v>11.9344185</v>
+      </c>
+      <c r="G57">
+        <v>11.9443693</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>12.487169333333334</v>
+      </c>
+      <c r="I57">
+        <v>17</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58">
+        <v>52.371496</v>
+      </c>
+      <c r="F58">
+        <v>51.513054199999999</v>
+      </c>
+      <c r="G58">
+        <v>51.599762599999998</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>51.828104266666664</v>
+      </c>
+      <c r="I58">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59">
+        <v>70.592125100000004</v>
+      </c>
+      <c r="F59">
+        <v>69.810580299999998</v>
+      </c>
+      <c r="G59">
+        <v>69.022853400000002</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>69.808519599999997</v>
+      </c>
+      <c r="I59">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60">
+        <v>196.2667706</v>
+      </c>
+      <c r="F60">
+        <v>196.99589399999999</v>
+      </c>
+      <c r="G60">
+        <v>185.0612581</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>192.77464090000001</v>
+      </c>
+      <c r="I60">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:J40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0863BC-9E62-4D76-8CDB-FD5CA02107BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E2840-ECE4-40B4-AF1D-C7203ED04FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1573,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E2840-ECE4-40B4-AF1D-C7203ED04FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DCD5C0-484D-4081-9CF6-B17A3DBBDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Scene name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,14 +210,31 @@
     <t>common_robot_TDgen.ts</t>
   </si>
   <si>
+    <t>cr3(joint:6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the amount of handles in this robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the amount of collision handles in this robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of handles in scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of collision handles in scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>The amount of objects in scene</t>
-  </si>
-  <si>
-    <t>cr3(joint:6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>the complexity of robots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of collision objects in scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1294,7 @@
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>138793</xdr:rowOff>
@@ -1571,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1585,12 +1602,14 @@
     <col min="5" max="5" width="11.640625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="41.0703125" customWidth="1"/>
-    <col min="10" max="10" width="16.35546875" customWidth="1"/>
-    <col min="13" max="13" width="10.35546875" customWidth="1"/>
+    <col min="9" max="10" width="41.0703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="32.2109375" customWidth="1"/>
+    <col min="14" max="14" width="10.35546875" customWidth="1"/>
+    <col min="15" max="15" width="21.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1635,9 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1633,11 +1653,11 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1666,14 +1686,14 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>13.72752</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1702,14 +1722,14 @@
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>20.656386999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1738,14 +1758,14 @@
       <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>21.927040000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1774,14 +1794,14 @@
       <c r="I6">
         <v>71</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>71</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>57.942410000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1810,14 +1830,14 @@
       <c r="I7">
         <v>162</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>159</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>158.55489900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1846,14 +1866,14 @@
       <c r="I8">
         <v>276</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>276</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>231.91065699999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1882,14 +1902,14 @@
       <c r="I9">
         <v>432</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>184</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1918,11 +1938,11 @@
       <c r="I10">
         <v>605</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H13" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>2</v>
       </c>
@@ -1952,7 +1972,7 @@
         <v>13.656549199999567</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>4</v>
       </c>
@@ -1960,7 +1980,7 @@
         <v>20.26016266666667</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>10</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>377.17739</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -2035,8 +2055,9 @@
         <v>2</v>
       </c>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>1</v>
       </c>
@@ -2050,13 +2071,25 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -2080,13 +2113,25 @@
         <v>15.394408263333332</v>
       </c>
       <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
         <v>17</v>
       </c>
-      <c r="J42">
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>43</v>
       </c>
@@ -2107,10 +2152,25 @@
         <v>61.188669266666665</v>
       </c>
       <c r="I43">
+        <v>13</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="K43">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <v>66</v>
+      </c>
+      <c r="M43">
+        <v>17</v>
+      </c>
+      <c r="N43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -2131,10 +2191,25 @@
         <v>90.912877600001096</v>
       </c>
       <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
+      <c r="K44">
         <v>174</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <v>135</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>45</v>
       </c>
@@ -2155,10 +2230,25 @@
         <v>290.46196246666665</v>
       </c>
       <c r="I45">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>42</v>
+      </c>
+      <c r="K45">
         <v>292</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <v>239</v>
+      </c>
+      <c r="M45">
+        <v>17</v>
+      </c>
+      <c r="N45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -2182,13 +2272,25 @@
         <v>15.749193200000001</v>
       </c>
       <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
         <v>17</v>
       </c>
-      <c r="J47">
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -2209,10 +2311,25 @@
         <v>83.408367233333323</v>
       </c>
       <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="K48">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <v>66</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -2233,10 +2350,25 @@
         <v>123.561064</v>
       </c>
       <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <v>135</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -2257,12 +2389,27 @@
         <v>286.68821333299996</v>
       </c>
       <c r="I50">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>42</v>
+      </c>
+      <c r="K50">
         <v>292</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L50">
+        <v>239</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -2284,13 +2431,25 @@
         <v>14.834745366666667</v>
       </c>
       <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
         <v>17</v>
       </c>
-      <c r="J52">
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
         <v>21</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -2311,10 +2470,25 @@
         <v>57.526877433333333</v>
       </c>
       <c r="I53">
+        <v>13</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L53">
+        <v>66</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -2335,10 +2509,25 @@
         <v>73.089341866666658</v>
       </c>
       <c r="I54">
+        <v>44</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
+      <c r="K54">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L54">
+        <v>135</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+      <c r="N54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -2359,10 +2548,25 @@
         <v>182.49237839666668</v>
       </c>
       <c r="I55">
+        <v>46</v>
+      </c>
+      <c r="J55">
+        <v>42</v>
+      </c>
+      <c r="K55">
         <v>292</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L55">
+        <v>239</v>
+      </c>
+      <c r="M55">
+        <v>21</v>
+      </c>
+      <c r="N55">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>40</v>
       </c>
@@ -2386,13 +2590,25 @@
         <v>12.487169333333334</v>
       </c>
       <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
         <v>17</v>
       </c>
-      <c r="J57">
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N57">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>43</v>
       </c>
@@ -2413,10 +2629,25 @@
         <v>51.828104266666664</v>
       </c>
       <c r="I58">
+        <v>13</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
         <v>86</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L58">
+        <v>66</v>
+      </c>
+      <c r="M58">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -2437,10 +2668,25 @@
         <v>69.808519599999997</v>
       </c>
       <c r="I59">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="J59">
+        <v>40</v>
+      </c>
+      <c r="K59">
+        <v>174</v>
+      </c>
+      <c r="L59">
+        <v>135</v>
+      </c>
+      <c r="M59">
+        <v>20</v>
+      </c>
+      <c r="N59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>45</v>
       </c>
@@ -2461,16 +2707,31 @@
         <v>192.77464090000001</v>
       </c>
       <c r="I60">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>42</v>
+      </c>
+      <c r="K60">
         <v>292</v>
+      </c>
+      <c r="L60">
+        <v>239</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I40:K40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DCD5C0-484D-4081-9CF6-B17A3DBBDBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965871D8-CB9D-429A-B6C9-0804C9A76AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,19 +222,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The amount of handles in scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The amount of collision handles in scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The amount of objects in scene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The amount of collision objects in scene</t>
+    <t>The amount of objects in scene(not include robot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of collision objects in scene(not include robot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of handles in scene(not include robot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The amount of collision handles in scene(not include robot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1605,6 +1605,7 @@
     <col min="9" max="10" width="41.0703125" customWidth="1"/>
     <col min="11" max="11" width="27.5703125" customWidth="1"/>
     <col min="12" max="12" width="32.2109375" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.35546875" customWidth="1"/>
     <col min="15" max="15" width="21.35546875" customWidth="1"/>
   </cols>
@@ -2071,16 +2072,16 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41" t="s">
         <v>52</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>53</v>
-      </c>
-      <c r="K41" t="s">
-        <v>50</v>
-      </c>
-      <c r="L41" t="s">
-        <v>51</v>
       </c>
       <c r="M41" t="s">
         <v>48</v>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965871D8-CB9D-429A-B6C9-0804C9A76AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D0932-B3EA-424F-A9D6-BAE6F4DDADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
   <si>
     <t>Scene name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,10 @@
     <t>The amount of collision handles in scene(not include robot)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +392,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$13</c:f>
+              <c:f>Sheet1!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -467,7 +471,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$H$22</c:f>
+              <c:f>Sheet1!$J$14:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -503,7 +507,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$14:$I$22</c:f>
+              <c:f>Sheet1!$K$14:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -728,7 +732,1996 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Mypal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> robot in four scene</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.639724999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.17739709999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239.4234318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1871500176"/>
+        <c:axId val="1871497776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1871500176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871497776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1871497776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871500176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>mecharm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> robot in four scene</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$64:$J$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$64:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.749193200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.482272100001495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162.73161376666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330.22956666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01BF-4A78-BB0E-D5BA3FE89FF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2001522480"/>
+        <c:axId val="2001516240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2001522480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001516240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2001516240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001522480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CR3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> robot in four scene</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$64:$L$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$64:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.4831316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.046594690000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171.01263</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>337.60482999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91CE-40CB-B44A-47FFB11DFB98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2008765216"/>
+        <c:axId val="2008771936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2008765216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008771936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2008771936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008765216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>UR3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> robot in four scene</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$64:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$64:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.655633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.054050000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.14098060000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280.01433800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D71-4651-AA43-ECC91D50E837}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2001528720"/>
+        <c:axId val="2001534960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2001528720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001534960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2001534960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2001528720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1284,17 +3277,1565 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>138793</xdr:rowOff>
@@ -1317,6 +4858,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12806</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>32016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819630</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>148558</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFE6D79-E2B2-9107-A1B7-CF94D865673F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>874059</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3099227</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>167768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB60AB-F039-A8B3-A676-4D5EEB24E265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176092</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>11525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1616848</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F51602-1992-60D6-7564-485343DC460E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1821756</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>630731</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14641BDB-653A-7BAA-6E18-CDD91F853D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1588,10 +5273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1601,16 +5286,16 @@
     <col min="4" max="4" width="23.2109375" customWidth="1"/>
     <col min="5" max="5" width="11.640625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="10" width="41.0703125" customWidth="1"/>
-    <col min="11" max="11" width="27.5703125" customWidth="1"/>
-    <col min="12" max="12" width="32.2109375" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.35546875" customWidth="1"/>
-    <col min="15" max="15" width="21.35546875" customWidth="1"/>
+    <col min="7" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="12" width="41.0703125" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" customWidth="1"/>
+    <col min="15" max="15" width="23.640625" customWidth="1"/>
+    <col min="16" max="16" width="10.35546875" customWidth="1"/>
+    <col min="17" max="17" width="21.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1629,16 +5314,18 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1648,17 +5335,17 @@
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1680,21 +5367,21 @@
       <c r="G3">
         <v>13.7175183</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <f>AVERAGE(E3:G3)</f>
         <v>13.656549199999567</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
         <v>13.72752</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1716,21 +5403,21 @@
       <c r="G4">
         <v>19.607921000000001</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H9" si="0">AVERAGE(E4:G4)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="0">AVERAGE(E4:G4)</f>
         <v>20.26016266666667</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
         <v>20.656386999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1752,21 +5439,21 @@
       <c r="G5">
         <v>21.717257</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>21.816255333333334</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
         <v>21.927040000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1788,21 +5475,21 @@
       <c r="G6">
         <v>57.972098000000003</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>57.343145666666665</v>
       </c>
-      <c r="I6">
-        <v>71</v>
-      </c>
       <c r="K6">
         <v>71</v>
       </c>
-      <c r="L6">
+      <c r="M6">
+        <v>71</v>
+      </c>
+      <c r="N6">
         <v>57.942410000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1824,21 +5511,21 @@
       <c r="G7">
         <v>171.20310599999999</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>164.98811833333335</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>162</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>159</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>158.55489900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1860,21 +5547,21 @@
       <c r="G8">
         <v>232.21849900000001</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>236.68649199999996</v>
       </c>
-      <c r="I8">
-        <v>276</v>
-      </c>
       <c r="K8">
         <v>276</v>
       </c>
-      <c r="L8">
+      <c r="M8">
+        <v>276</v>
+      </c>
+      <c r="N8">
         <v>231.91065699999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1896,21 +5583,21 @@
       <c r="G9">
         <v>309.22149999999999</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>313.21012766666666</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>432</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>184</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1932,18 +5619,18 @@
       <c r="G10">
         <v>407.73549000000003</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <f>AVERAGE(E10:G10)</f>
         <v>374.59286800000001</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>605</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1957,87 +5644,87 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>13.656549199999567</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>20.26016266666667</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>21.816255333333334</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H17">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J17">
         <v>71</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>57.343145666666665</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H18">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J18">
         <v>162</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>164.98811833333335</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H19">
+    <row r="19" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J19">
         <v>276</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>236.68649199999996</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H20">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J20">
         <v>432</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>313.21012766666666</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H21">
+    <row r="21" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J21">
         <v>605</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>374.59286800000001</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H22">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J22">
         <v>624</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>377.17739</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -2052,13 +5739,15 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="I40" s="2" t="s">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>1</v>
       </c>
@@ -2068,29 +5757,29 @@
       <c r="G41">
         <v>3</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>50</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>51</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>52</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>53</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>48</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -2109,30 +5798,30 @@
       <c r="G42">
         <v>16.216851590000001</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <f>AVERAGE(E42:G42)</f>
         <v>15.394408263333332</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>5</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>2</v>
-      </c>
-      <c r="K42">
-        <v>17</v>
-      </c>
-      <c r="L42">
-        <v>4</v>
       </c>
       <c r="M42">
         <v>17</v>
       </c>
       <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>17</v>
+      </c>
+      <c r="P42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>43</v>
       </c>
@@ -2148,30 +5837,30 @@
       <c r="G43">
         <v>60.294494200000003</v>
       </c>
-      <c r="H43">
-        <f t="shared" ref="H43:H60" si="1">AVERAGE(E43:G43)</f>
+      <c r="J43">
+        <f t="shared" ref="J43:J60" si="1">AVERAGE(E43:G43)</f>
         <v>61.188669266666665</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>13</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>10</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>86</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>66</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>17</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -2179,38 +5868,38 @@
         <v>46</v>
       </c>
       <c r="E44">
-        <v>90.207876299999995</v>
+        <v>115.023409</v>
       </c>
       <c r="F44">
-        <v>92.767309999999995</v>
+        <v>114.863602</v>
       </c>
       <c r="G44">
-        <v>89.763446500003298</v>
-      </c>
-      <c r="H44">
+        <v>116.27200000000001</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="1"/>
-        <v>90.912877600001096</v>
-      </c>
-      <c r="I44">
+        <v>115.38633700000001</v>
+      </c>
+      <c r="K44">
         <v>44</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>40</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>174</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>135</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>17</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>45</v>
       </c>
@@ -2218,38 +5907,38 @@
         <v>46</v>
       </c>
       <c r="E45">
-        <v>275.62256000000002</v>
+        <v>241.91629599999999</v>
       </c>
       <c r="F45">
-        <v>290.51753300000001</v>
+        <v>242.44348299999999</v>
       </c>
       <c r="G45">
-        <v>305.24579440000002</v>
-      </c>
-      <c r="H45">
+        <v>243.7131195</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="1"/>
-        <v>290.46196246666665</v>
-      </c>
-      <c r="I45">
+        <v>242.6909661666667</v>
+      </c>
+      <c r="K45">
         <v>46</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>42</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>292</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>239</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>17</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -2268,30 +5957,30 @@
       <c r="G47">
         <v>15.3842</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <f t="shared" si="1"/>
         <v>15.749193200000001</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>5</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>2</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>17</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>4</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>20</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -2307,30 +5996,30 @@
       <c r="G48">
         <v>84.549351700000003</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <f t="shared" si="1"/>
         <v>83.408367233333323</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>13</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>10</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>86</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>66</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>20</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -2338,38 +6027,38 @@
         <v>46</v>
       </c>
       <c r="E49">
-        <v>123.33629999999999</v>
+        <v>162.13547600000001</v>
       </c>
       <c r="F49">
-        <v>123.278881</v>
+        <v>163.35308599999999</v>
       </c>
       <c r="G49">
-        <v>124.068011</v>
-      </c>
-      <c r="H49">
+        <v>162.70627930000001</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="1"/>
-        <v>123.561064</v>
-      </c>
-      <c r="I49">
+        <v>162.73161376666667</v>
+      </c>
+      <c r="K49">
         <v>44</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>40</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>174</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>135</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>20</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -2377,38 +6066,38 @@
         <v>46</v>
       </c>
       <c r="E50">
-        <v>288.669647199</v>
+        <v>334.97460000000001</v>
       </c>
       <c r="F50">
-        <v>284.72779179999998</v>
+        <v>333.25229999999999</v>
       </c>
       <c r="G50">
-        <v>286.66720099999998</v>
-      </c>
-      <c r="H50">
+        <v>322.46179999999998</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="1"/>
-        <v>286.68821333299996</v>
-      </c>
-      <c r="I50">
+        <v>330.22956666666664</v>
+      </c>
+      <c r="K50">
         <v>46</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>42</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>292</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>239</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>20</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>47</v>
       </c>
@@ -2427,30 +6116,30 @@
       <c r="G52">
         <v>15.4060246</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <f t="shared" si="1"/>
         <v>14.834745366666667</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>5</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>17</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>4</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>21</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -2466,30 +6155,30 @@
       <c r="G53">
         <v>55.805736400000001</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <f t="shared" si="1"/>
         <v>57.526877433333333</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>13</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>10</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>86</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>66</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>21</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -2497,38 +6186,38 @@
         <v>46</v>
       </c>
       <c r="E54">
-        <v>73.991912999999997</v>
+        <v>83.125960000000006</v>
       </c>
       <c r="F54">
-        <v>72.674952000000005</v>
+        <v>82.958461</v>
       </c>
       <c r="G54">
-        <v>72.6011606</v>
-      </c>
-      <c r="H54">
+        <v>83.529456600000003</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="1"/>
-        <v>73.089341866666658</v>
-      </c>
-      <c r="I54">
+        <v>83.204625866666674</v>
+      </c>
+      <c r="K54">
         <v>44</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>40</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>174</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>135</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>21</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -2544,30 +6233,30 @@
       <c r="G55">
         <v>182.45144999999999</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <f t="shared" si="1"/>
         <v>182.49237839666668</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>46</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>42</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>292</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>239</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>21</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>40</v>
       </c>
@@ -2586,30 +6275,30 @@
       <c r="G57">
         <v>11.9443693</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <f t="shared" si="1"/>
         <v>12.487169333333334</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>5</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>2</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>17</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>4</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>20</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>43</v>
       </c>
@@ -2625,30 +6314,30 @@
       <c r="G58">
         <v>51.599762599999998</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <f t="shared" si="1"/>
         <v>51.828104266666664</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>13</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>10</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>86</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>66</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>20</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -2656,38 +6345,38 @@
         <v>46</v>
       </c>
       <c r="E59">
-        <v>70.592125100000004</v>
+        <v>88.611516699999996</v>
       </c>
       <c r="F59">
-        <v>69.810580299999998</v>
+        <v>89.193674000000001</v>
       </c>
       <c r="G59">
-        <v>69.022853400000002</v>
-      </c>
-      <c r="H59">
+        <v>88.349430400000003</v>
+      </c>
+      <c r="J59">
         <f t="shared" si="1"/>
-        <v>69.808519599999997</v>
-      </c>
-      <c r="I59">
+        <v>88.718207033333329</v>
+      </c>
+      <c r="K59">
         <v>44</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>40</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>174</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>135</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>20</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>45</v>
       </c>
@@ -2703,36 +6392,159 @@
       <c r="G60">
         <v>185.0612581</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <f t="shared" si="1"/>
         <v>192.77464090000001</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>46</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>42</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>292</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>239</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>20</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" t="s">
+        <v>54</v>
+      </c>
+      <c r="N63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>15.394408263333332</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>15.749193200000001</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>15.4831316</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <v>13.655633</v>
+      </c>
+    </row>
+    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>66</v>
+      </c>
+      <c r="E65">
+        <v>65.639724999999999</v>
+      </c>
+      <c r="J65">
+        <v>66</v>
+      </c>
+      <c r="K65">
+        <v>85.482272100001495</v>
+      </c>
+      <c r="L65">
+        <v>66</v>
+      </c>
+      <c r="M65">
+        <v>90.046594690000006</v>
+      </c>
+      <c r="N65">
+        <v>66</v>
+      </c>
+      <c r="O65">
+        <v>75.054050000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>135</v>
+      </c>
+      <c r="E66">
+        <v>121.17739709999999</v>
+      </c>
+      <c r="J66">
+        <v>135</v>
+      </c>
+      <c r="K66">
+        <v>162.73161376666667</v>
+      </c>
+      <c r="L66">
+        <v>135</v>
+      </c>
+      <c r="M66">
+        <v>171.01263</v>
+      </c>
+      <c r="N66">
+        <v>135</v>
+      </c>
+      <c r="O66">
+        <v>142.14098060000001</v>
+      </c>
+    </row>
+    <row r="67" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>239</v>
+      </c>
+      <c r="E67">
+        <v>239.4234318</v>
+      </c>
+      <c r="J67">
+        <v>239</v>
+      </c>
+      <c r="K67">
+        <v>330.22956666666664</v>
+      </c>
+      <c r="L67">
+        <v>239</v>
+      </c>
+      <c r="M67">
+        <v>337.60482999999999</v>
+      </c>
+      <c r="N67">
+        <v>239</v>
+      </c>
+      <c r="O67">
+        <v>280.01433800000001</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E88">
+        <v>201.69596000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="K40:M40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820D0932-B3EA-424F-A9D6-BAE6F4DDADDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5676F-2206-42E3-9918-235B8D9211E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>Scene name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,18 @@
     <t>CR3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Data by old method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data by new method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumed-time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +404,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$13</c:f>
+              <c:f>Sheet1!$I$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -471,7 +483,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$14:$J$22</c:f>
+              <c:f>Sheet1!$H$14:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -507,7 +519,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$14:$K$22</c:f>
+              <c:f>Sheet1!$I$14:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -767,735 +779,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Mypal</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
-              <a:t> robot in four scene</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="2"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="6"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$64:$D$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$64:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.394408263333332</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.639724999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121.17739709999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>239.4234318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-C8F3-4D8A-9EEF-8B6072F71C7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1871500176"/>
-        <c:axId val="1871497776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1871500176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1871497776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1871497776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1871500176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>mecharm</a:t>
             </a:r>
             <a:r>
@@ -1614,7 +897,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$64:$J$67</c:f>
+              <c:f>Sheet1!$H$95:$H$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1635,7 +918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$64:$K$67</c:f>
+              <c:f>Sheet1!$I$95:$I$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1643,7 +926,7 @@
                   <c:v>15.749193200000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.482272100001495</c:v>
+                  <c:v>83.408367233333323</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>162.73161376666667</c:v>
@@ -1841,7 +1124,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1994,7 +1277,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$L$64:$L$67</c:f>
+              <c:f>Sheet1!$K$95:$K$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2015,7 +1298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$64:$M$67</c:f>
+              <c:f>Sheet1!$L$95:$L$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2023,13 +1306,13 @@
                   <c:v>15.4831316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.046594690000006</c:v>
+                  <c:v>57.526877433333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>171.01263</c:v>
+                  <c:v>173.89732899999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337.60482999999999</c:v>
+                  <c:v>343.07984333333326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,7 +1504,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2374,7 +1657,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$N$64:$N$67</c:f>
+              <c:f>Sheet1!$N$95:$N$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2395,7 +1678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$64:$O$67</c:f>
+              <c:f>Sheet1!$O$95:$O$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2403,13 +1686,13 @@
                   <c:v>13.655633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.054050000000004</c:v>
+                  <c:v>51.828104266666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.14098060000001</c:v>
+                  <c:v>142.76972620000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>280.01433800000001</c:v>
+                  <c:v>281.91293166666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2553,6 +1836,396 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2001528720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mypal robot in four scene</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$95:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$95:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.394408263333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.188669266666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.38633700000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>242.6909661666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-697C-496F-9FC2-B4C34CC71E0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1834753152"/>
+        <c:axId val="1834760352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1834753152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834760352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1834760352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1834753152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2761,6 +2434,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4825,17 +4538,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>138793</xdr:rowOff>
@@ -4865,23 +5094,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>12806</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>32016</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990692</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>10064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>819630</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>148558</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>82330</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152217</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFE6D79-E2B2-9107-A1B7-CF94D865673F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB60AB-F039-A8B3-A676-4D5EEB24E265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,23 +5130,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>874059</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>25614</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2780888</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>151487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3099227</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>167768</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>263908</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>26436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB60AB-F039-A8B3-A676-4D5EEB24E265}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F51602-1992-60D6-7564-485343DC460E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4937,23 +5166,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>176092</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>11525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>772061</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1616848</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>65313</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>420794</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>56167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
+        <xdr:cNvPr id="6" name="图表 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F51602-1992-60D6-7564-485343DC460E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14641BDB-653A-7BAA-6E18-CDD91F853D87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4973,23 +5202,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1821756</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>692019</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>148512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>630731</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155509</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>30325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5">
+        <xdr:cNvPr id="7" name="图表 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14641BDB-653A-7BAA-6E18-CDD91F853D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D0C6AE-6EAA-73E0-5E39-A3C7DEEC2F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5273,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -5286,16 +5515,16 @@
     <col min="4" max="4" width="23.2109375" customWidth="1"/>
     <col min="5" max="5" width="11.640625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="12" width="41.0703125" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
-    <col min="15" max="15" width="23.640625" customWidth="1"/>
-    <col min="16" max="16" width="10.35546875" customWidth="1"/>
-    <col min="17" max="17" width="21.35546875" customWidth="1"/>
+    <col min="7" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="10" width="41.0703125" customWidth="1"/>
+    <col min="11" max="11" width="27.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="23.640625" customWidth="1"/>
+    <col min="14" max="14" width="10.35546875" customWidth="1"/>
+    <col min="15" max="15" width="21.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5314,18 +5543,16 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E2">
         <v>1</v>
       </c>
@@ -5335,17 +5562,17 @@
       <c r="G2">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -5367,21 +5594,21 @@
       <c r="G3">
         <v>13.7175183</v>
       </c>
-      <c r="J3">
+      <c r="H3">
         <f>AVERAGE(E3:G3)</f>
         <v>13.656549199999567</v>
       </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
+      <c r="L3">
         <v>13.72752</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5403,21 +5630,21 @@
       <c r="G4">
         <v>19.607921000000001</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="0">AVERAGE(E4:G4)</f>
+      <c r="H4">
+        <f t="shared" ref="H4:H9" si="0">AVERAGE(E4:G4)</f>
         <v>20.26016266666667</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
+      <c r="L4">
         <v>20.656386999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5439,21 +5666,21 @@
       <c r="G5">
         <v>21.717257</v>
       </c>
-      <c r="J5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>21.816255333333334</v>
       </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
       <c r="K5">
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
+      <c r="L5">
         <v>21.927040000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5475,21 +5702,21 @@
       <c r="G6">
         <v>57.972098000000003</v>
       </c>
-      <c r="J6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>57.343145666666665</v>
       </c>
+      <c r="I6">
+        <v>71</v>
+      </c>
       <c r="K6">
         <v>71</v>
       </c>
-      <c r="M6">
-        <v>71</v>
-      </c>
-      <c r="N6">
+      <c r="L6">
         <v>57.942410000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -5511,21 +5738,21 @@
       <c r="G7">
         <v>171.20310599999999</v>
       </c>
-      <c r="J7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>164.98811833333335</v>
       </c>
+      <c r="I7">
+        <v>162</v>
+      </c>
       <c r="K7">
-        <v>162</v>
-      </c>
-      <c r="M7">
         <v>159</v>
       </c>
-      <c r="N7">
+      <c r="L7">
         <v>158.55489900000001</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5547,21 +5774,21 @@
       <c r="G8">
         <v>232.21849900000001</v>
       </c>
-      <c r="J8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>236.68649199999996</v>
       </c>
+      <c r="I8">
+        <v>276</v>
+      </c>
       <c r="K8">
         <v>276</v>
       </c>
-      <c r="M8">
-        <v>276</v>
-      </c>
-      <c r="N8">
+      <c r="L8">
         <v>231.91065699999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -5583,21 +5810,21 @@
       <c r="G9">
         <v>309.22149999999999</v>
       </c>
-      <c r="J9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>313.21012766666666</v>
       </c>
+      <c r="I9">
+        <v>432</v>
+      </c>
       <c r="K9">
-        <v>432</v>
-      </c>
-      <c r="M9">
         <v>184</v>
       </c>
-      <c r="O9" t="s">
+      <c r="M9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5619,18 +5846,18 @@
       <c r="G10">
         <v>407.73549000000003</v>
       </c>
-      <c r="J10">
+      <c r="H10">
         <f>AVERAGE(E10:G10)</f>
         <v>374.59286800000001</v>
       </c>
+      <c r="I10">
+        <v>605</v>
+      </c>
       <c r="K10">
-        <v>605</v>
-      </c>
-      <c r="M10">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5644,87 +5871,92 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J13" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
+      <c r="I13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="I14">
         <v>13.656549199999567</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H15">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="I15">
         <v>20.26016266666667</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="K16">
+      <c r="I16">
         <v>21.816255333333334</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J17">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17">
         <v>71</v>
       </c>
-      <c r="K17">
+      <c r="I17">
         <v>57.343145666666665</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J18">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H18">
         <v>162</v>
       </c>
-      <c r="K18">
+      <c r="I18">
         <v>164.98811833333335</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J19">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H19">
         <v>276</v>
       </c>
-      <c r="K19">
+      <c r="I19">
         <v>236.68649199999996</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J20">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H20">
         <v>432</v>
       </c>
-      <c r="K20">
+      <c r="I20">
         <v>313.21012766666666</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J21">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H21">
         <v>605</v>
       </c>
-      <c r="K21">
+      <c r="I21">
         <v>374.59286800000001</v>
       </c>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J22">
+    <row r="22" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H22">
         <v>624</v>
       </c>
-      <c r="K22">
+      <c r="I22">
         <v>377.17739</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -5739,15 +5971,13 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>1</v>
       </c>
@@ -5757,29 +5987,29 @@
       <c r="G41">
         <v>3</v>
       </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>50</v>
+      </c>
       <c r="J41" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N41" t="s">
-        <v>53</v>
-      </c>
-      <c r="O41" t="s">
-        <v>48</v>
-      </c>
-      <c r="P41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>38</v>
       </c>
@@ -5798,30 +6028,30 @@
       <c r="G42">
         <v>16.216851590000001</v>
       </c>
-      <c r="J42">
+      <c r="H42">
         <f>AVERAGE(E42:G42)</f>
         <v>15.394408263333332</v>
       </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
       <c r="K42">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42">
         <v>17</v>
       </c>
       <c r="N42">
-        <v>4</v>
-      </c>
-      <c r="O42">
-        <v>17</v>
-      </c>
-      <c r="P42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>43</v>
       </c>
@@ -5837,30 +6067,30 @@
       <c r="G43">
         <v>60.294494200000003</v>
       </c>
+      <c r="H43">
+        <f t="shared" ref="H43:H60" si="1">AVERAGE(E43:G43)</f>
+        <v>61.188669266666665</v>
+      </c>
+      <c r="I43">
+        <v>13</v>
+      </c>
       <c r="J43">
-        <f t="shared" ref="J43:J60" si="1">AVERAGE(E43:G43)</f>
-        <v>61.188669266666665</v>
+        <v>10</v>
       </c>
       <c r="K43">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="M43">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="N43">
-        <v>66</v>
-      </c>
-      <c r="O43">
-        <v>17</v>
-      </c>
-      <c r="P43">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>44</v>
       </c>
@@ -5876,30 +6106,30 @@
       <c r="G44">
         <v>116.27200000000001</v>
       </c>
-      <c r="J44">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>115.38633700000001</v>
       </c>
+      <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <v>40</v>
+      </c>
       <c r="K44">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M44">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="N44">
-        <v>135</v>
-      </c>
-      <c r="O44">
-        <v>17</v>
-      </c>
-      <c r="P44">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>45</v>
       </c>
@@ -5915,30 +6145,30 @@
       <c r="G45">
         <v>243.7131195</v>
       </c>
-      <c r="J45">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>242.6909661666667</v>
       </c>
+      <c r="I45">
+        <v>46</v>
+      </c>
+      <c r="J45">
+        <v>42</v>
+      </c>
       <c r="K45">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="M45">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="N45">
-        <v>239</v>
-      </c>
-      <c r="O45">
-        <v>17</v>
-      </c>
-      <c r="P45">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -5957,30 +6187,30 @@
       <c r="G47">
         <v>15.3842</v>
       </c>
-      <c r="J47">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>15.749193200000001</v>
       </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
       <c r="K47">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>4</v>
-      </c>
-      <c r="O47">
-        <v>20</v>
-      </c>
-      <c r="P47">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>43</v>
       </c>
@@ -5996,30 +6226,30 @@
       <c r="G48">
         <v>84.549351700000003</v>
       </c>
-      <c r="J48">
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>83.408367233333323</v>
       </c>
+      <c r="I48">
+        <v>13</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
       <c r="K48">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L48">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="M48">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="N48">
-        <v>66</v>
-      </c>
-      <c r="O48">
-        <v>20</v>
-      </c>
-      <c r="P48">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>44</v>
       </c>
@@ -6035,30 +6265,30 @@
       <c r="G49">
         <v>162.70627930000001</v>
       </c>
-      <c r="J49">
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>162.73161376666667</v>
       </c>
+      <c r="I49">
+        <v>44</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
       <c r="K49">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M49">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>135</v>
-      </c>
-      <c r="O49">
-        <v>20</v>
-      </c>
-      <c r="P49">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>45</v>
       </c>
@@ -6074,30 +6304,30 @@
       <c r="G50">
         <v>322.46179999999998</v>
       </c>
-      <c r="J50">
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>330.22956666666664</v>
       </c>
+      <c r="I50">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <v>42</v>
+      </c>
       <c r="K50">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="M50">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>239</v>
-      </c>
-      <c r="O50">
-        <v>20</v>
-      </c>
-      <c r="P50">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>47</v>
       </c>
@@ -6116,30 +6346,30 @@
       <c r="G52">
         <v>15.4060246</v>
       </c>
-      <c r="J52">
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>14.834745366666667</v>
       </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
       <c r="K52">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N52">
-        <v>4</v>
-      </c>
-      <c r="O52">
-        <v>21</v>
-      </c>
-      <c r="P52">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>43</v>
       </c>
@@ -6155,30 +6385,30 @@
       <c r="G53">
         <v>55.805736400000001</v>
       </c>
-      <c r="J53">
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>57.526877433333333</v>
       </c>
+      <c r="I53">
+        <v>13</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
       <c r="K53">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L53">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="M53">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>66</v>
-      </c>
-      <c r="O53">
-        <v>21</v>
-      </c>
-      <c r="P53">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>44</v>
       </c>
@@ -6194,30 +6424,30 @@
       <c r="G54">
         <v>83.529456600000003</v>
       </c>
-      <c r="J54">
+      <c r="H54">
         <f t="shared" si="1"/>
         <v>83.204625866666674</v>
       </c>
+      <c r="I54">
+        <v>44</v>
+      </c>
+      <c r="J54">
+        <v>40</v>
+      </c>
       <c r="K54">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M54">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="N54">
-        <v>135</v>
-      </c>
-      <c r="O54">
-        <v>21</v>
-      </c>
-      <c r="P54">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C55" t="s">
         <v>45</v>
       </c>
@@ -6233,30 +6463,30 @@
       <c r="G55">
         <v>182.45144999999999</v>
       </c>
-      <c r="J55">
+      <c r="H55">
         <f t="shared" si="1"/>
         <v>182.49237839666668</v>
       </c>
+      <c r="I55">
+        <v>46</v>
+      </c>
+      <c r="J55">
+        <v>42</v>
+      </c>
       <c r="K55">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="L55">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="M55">
-        <v>292</v>
+        <v>21</v>
       </c>
       <c r="N55">
-        <v>239</v>
-      </c>
-      <c r="O55">
-        <v>21</v>
-      </c>
-      <c r="P55">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>40</v>
       </c>
@@ -6275,30 +6505,30 @@
       <c r="G57">
         <v>11.9443693</v>
       </c>
-      <c r="J57">
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>12.487169333333334</v>
       </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
       <c r="K57">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57">
-        <v>20</v>
-      </c>
-      <c r="P57">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>43</v>
       </c>
@@ -6314,30 +6544,30 @@
       <c r="G58">
         <v>51.599762599999998</v>
       </c>
-      <c r="J58">
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>51.828104266666664</v>
       </c>
+      <c r="I58">
+        <v>13</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
       <c r="K58">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="M58">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="N58">
-        <v>66</v>
-      </c>
-      <c r="O58">
-        <v>20</v>
-      </c>
-      <c r="P58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -6353,30 +6583,30 @@
       <c r="G59">
         <v>88.349430400000003</v>
       </c>
-      <c r="J59">
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>88.718207033333329</v>
       </c>
+      <c r="I59">
+        <v>44</v>
+      </c>
+      <c r="J59">
+        <v>40</v>
+      </c>
       <c r="K59">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M59">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="N59">
-        <v>135</v>
-      </c>
-      <c r="O59">
-        <v>20</v>
-      </c>
-      <c r="P59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>45</v>
       </c>
@@ -6392,159 +6622,564 @@
       <c r="G60">
         <v>185.0612581</v>
       </c>
-      <c r="J60">
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>192.77464090000001</v>
       </c>
+      <c r="I60">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>42</v>
+      </c>
       <c r="K60">
+        <v>292</v>
+      </c>
+      <c r="L60">
+        <v>239</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" t="s">
         <v>46</v>
       </c>
-      <c r="L60">
+      <c r="E70">
+        <v>14.863182</v>
+      </c>
+      <c r="F70">
+        <v>15.103191199999999</v>
+      </c>
+      <c r="G70">
+        <v>16.216851590000001</v>
+      </c>
+      <c r="H70">
+        <f>AVERAGE(E70:G70)</f>
+        <v>15.394408263333332</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71">
+        <v>61.480637600000001</v>
+      </c>
+      <c r="F71">
+        <v>61.790875999999997</v>
+      </c>
+      <c r="G71">
+        <v>60.294494200000003</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71:H88" si="2">AVERAGE(E71:G71)</f>
+        <v>61.188669266666665</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72">
+        <v>115.023409</v>
+      </c>
+      <c r="F72">
+        <v>114.863602</v>
+      </c>
+      <c r="G72">
+        <v>116.27200000000001</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>115.38633700000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73">
+        <v>241.91629599999999</v>
+      </c>
+      <c r="F73">
+        <v>242.44348299999999</v>
+      </c>
+      <c r="G73">
+        <v>243.7131195</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>242.6909661666667</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
         <v>42</v>
       </c>
-      <c r="M60">
-        <v>292</v>
-      </c>
-      <c r="N60">
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <v>16.4620538</v>
+      </c>
+      <c r="F75">
+        <v>15.4013258</v>
+      </c>
+      <c r="G75">
+        <v>15.3842</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>15.749193200000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76">
+        <v>80.989699999999999</v>
+      </c>
+      <c r="F76">
+        <v>84.686049999999994</v>
+      </c>
+      <c r="G76">
+        <v>84.549351700000003</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>83.408367233333323</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77">
+        <v>162.13547600000001</v>
+      </c>
+      <c r="F77">
+        <v>163.35308599999999</v>
+      </c>
+      <c r="G77">
+        <v>162.70627930000001</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>162.73161376666667</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78">
+        <v>334.97460000000001</v>
+      </c>
+      <c r="F78">
+        <v>333.25229999999999</v>
+      </c>
+      <c r="G78">
+        <v>322.46179999999998</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>330.22956666666664</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80">
+        <v>15.4831316</v>
+      </c>
+      <c r="F80">
+        <v>14.396179999999999</v>
+      </c>
+      <c r="G80">
+        <v>15.6412768</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>15.173529466666666</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>43</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81">
+        <v>90.046594690000006</v>
+      </c>
+      <c r="F81">
+        <v>90.642294199999995</v>
+      </c>
+      <c r="G81">
+        <v>93.846540000000005</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>91.511809630000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>171.01263</v>
+      </c>
+      <c r="F82">
+        <v>177.65016</v>
+      </c>
+      <c r="G82">
+        <v>173.02919700000001</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>173.89732899999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83">
+        <v>337.60482999999999</v>
+      </c>
+      <c r="F83">
+        <v>348.23559999999998</v>
+      </c>
+      <c r="G83">
+        <v>343.39909999999998</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>343.07984333333326</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85">
+        <v>13.655633</v>
+      </c>
+      <c r="F85">
+        <v>14.209644900000001</v>
+      </c>
+      <c r="G85">
+        <v>13.89054</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>13.918605966666668</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86">
+        <v>75.054050000000004</v>
+      </c>
+      <c r="F86">
+        <v>76.456643999999997</v>
+      </c>
+      <c r="G86">
+        <v>75.833240000000004</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="2"/>
+        <v>75.781311333333335</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87">
+        <v>142.14098060000001</v>
+      </c>
+      <c r="F87">
+        <v>141.492828</v>
+      </c>
+      <c r="G87">
+        <v>144.67536999999999</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>142.76972620000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>280.01433800000001</v>
+      </c>
+      <c r="F88">
+        <v>283.415457</v>
+      </c>
+      <c r="G88">
+        <v>282.30900000000003</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>281.91293166666668</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" t="s">
+        <v>54</v>
+      </c>
+      <c r="N93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" t="s">
+        <v>53</v>
+      </c>
+      <c r="I94" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" t="s">
+        <v>53</v>
+      </c>
+      <c r="L94" t="s">
+        <v>57</v>
+      </c>
+      <c r="N94" t="s">
+        <v>53</v>
+      </c>
+      <c r="O94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>15.394408263333332</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>15.749193200000001</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>15.4831316</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <v>13.655633</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>66</v>
+      </c>
+      <c r="E96">
+        <v>61.188669266666665</v>
+      </c>
+      <c r="H96">
+        <v>66</v>
+      </c>
+      <c r="I96">
+        <v>83.408367233333323</v>
+      </c>
+      <c r="K96">
+        <v>66</v>
+      </c>
+      <c r="L96">
+        <v>57.526877433333333</v>
+      </c>
+      <c r="N96">
+        <v>66</v>
+      </c>
+      <c r="O96">
+        <v>51.828104266666664</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>135</v>
+      </c>
+      <c r="E97">
+        <v>115.38633700000001</v>
+      </c>
+      <c r="H97">
+        <v>135</v>
+      </c>
+      <c r="I97">
+        <v>162.73161376666667</v>
+      </c>
+      <c r="K97">
+        <v>135</v>
+      </c>
+      <c r="L97">
+        <v>173.89732899999998</v>
+      </c>
+      <c r="N97">
+        <v>135</v>
+      </c>
+      <c r="O97">
+        <v>142.76972620000001</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D98">
         <v>239</v>
       </c>
-      <c r="O60">
-        <v>20</v>
-      </c>
-      <c r="P60">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D63" t="s">
-        <v>31</v>
-      </c>
-      <c r="J63" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D64">
-        <v>4</v>
-      </c>
-      <c r="E64">
-        <v>15.394408263333332</v>
-      </c>
-      <c r="J64">
-        <v>4</v>
-      </c>
-      <c r="K64">
-        <v>15.749193200000001</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>15.4831316</v>
-      </c>
-      <c r="N64">
-        <v>4</v>
-      </c>
-      <c r="O64">
-        <v>13.655633</v>
-      </c>
-    </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D65">
-        <v>66</v>
-      </c>
-      <c r="E65">
-        <v>65.639724999999999</v>
-      </c>
-      <c r="J65">
-        <v>66</v>
-      </c>
-      <c r="K65">
-        <v>85.482272100001495</v>
-      </c>
-      <c r="L65">
-        <v>66</v>
-      </c>
-      <c r="M65">
-        <v>90.046594690000006</v>
-      </c>
-      <c r="N65">
-        <v>66</v>
-      </c>
-      <c r="O65">
-        <v>75.054050000000004</v>
-      </c>
-    </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D66">
-        <v>135</v>
-      </c>
-      <c r="E66">
-        <v>121.17739709999999</v>
-      </c>
-      <c r="J66">
-        <v>135</v>
-      </c>
-      <c r="K66">
-        <v>162.73161376666667</v>
-      </c>
-      <c r="L66">
-        <v>135</v>
-      </c>
-      <c r="M66">
-        <v>171.01263</v>
-      </c>
-      <c r="N66">
-        <v>135</v>
-      </c>
-      <c r="O66">
-        <v>142.14098060000001</v>
-      </c>
-    </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.35">
-      <c r="D67">
+      <c r="E98">
+        <v>242.6909661666667</v>
+      </c>
+      <c r="H98">
         <v>239</v>
       </c>
-      <c r="E67">
-        <v>239.4234318</v>
-      </c>
-      <c r="J67">
+      <c r="I98">
+        <v>330.22956666666664</v>
+      </c>
+      <c r="K98">
         <v>239</v>
       </c>
-      <c r="K67">
-        <v>330.22956666666664</v>
-      </c>
-      <c r="L67">
+      <c r="L98">
+        <v>343.07984333333326</v>
+      </c>
+      <c r="N98">
         <v>239</v>
       </c>
-      <c r="M67">
-        <v>337.60482999999999</v>
-      </c>
-      <c r="N67">
-        <v>239</v>
-      </c>
-      <c r="O67">
-        <v>280.01433800000001</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E88">
-        <v>201.69596000000001</v>
+      <c r="O98">
+        <v>281.91293166666668</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E68:G68"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="E40:G40"/>
-    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="I40:K40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
+++ b/Evaluation_TDgenTime_sceneComplexity/Time-consumed and scene complexity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master_thesis\project\robwot\Evaluation_TDgenTime_sceneComplexity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E5676F-2206-42E3-9918-235B8D9211E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6B2AE2-4229-442E-8BD8-7CB7D57931B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1306,7 +1306,7 @@
                   <c:v>15.4831316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.526877433333333</c:v>
+                  <c:v>91.511809630000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>173.89732899999998</c:v>
@@ -1686,7 +1686,7 @@
                   <c:v>13.655633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.828104266666664</c:v>
+                  <c:v>75.781311333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>142.76972620000001</c:v>
@@ -5504,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7111,13 +7111,13 @@
         <v>66</v>
       </c>
       <c r="L96">
-        <v>57.526877433333333</v>
+        <v>91.511809630000002</v>
       </c>
       <c r="N96">
         <v>66</v>
       </c>
       <c r="O96">
-        <v>51.828104266666664</v>
+        <v>75.781311333333335</v>
       </c>
     </row>
     <row r="97" spans="4:15" x14ac:dyDescent="0.35">
